--- a/xlsx/模里西斯_intext.xlsx
+++ b/xlsx/模里西斯_intext.xlsx
@@ -29,7 +29,7 @@
     <t>毛里求斯国旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_模里西斯</t>
+    <t>体育运动_体育运动_南非_模里西斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E6%B1%82%E6%96%AF%E5%9C%8B%E5%BE%BD</t>
@@ -25500,7 +25500,7 @@
         <v>1370</v>
       </c>
       <c r="G725" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H725" t="s">
         <v>4</v>
